--- a/plantilla_presupuesto_modelo.xlsx
+++ b/plantilla_presupuesto_modelo.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\AUTONOMA 2025-1\2 PROYECTO DE TESIS I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\AUTONOMA 2025-1\2 PROYECTO DE TESIS I\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3EBBE2B-AB74-4468-8508-BFC7269A7787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A51C26-DB53-47B5-8CB0-F9AD58B4C14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NOMBRE PARTIDAS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="118">
   <si>
     <t>Item</t>
   </si>
@@ -61,13 +62,319 @@
     <t>2025-08-01</t>
   </si>
   <si>
-    <t>Movimiento de tierras</t>
-  </si>
-  <si>
-    <t>Cimentación</t>
-  </si>
-  <si>
     <t>m3</t>
+  </si>
+  <si>
+    <t>Limpieza del terreno</t>
+  </si>
+  <si>
+    <t>m²</t>
+  </si>
+  <si>
+    <t>Trazo y nivelación</t>
+  </si>
+  <si>
+    <t>Excavación de zanjas</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>Relleno compactado</t>
+  </si>
+  <si>
+    <t>m³</t>
+  </si>
+  <si>
+    <t>Cimentación corrida</t>
+  </si>
+  <si>
+    <t>Cimentación aislada</t>
+  </si>
+  <si>
+    <t>Viga de cimentación</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>Columnas de concreto</t>
+  </si>
+  <si>
+    <t>Encofrado de columnas</t>
+  </si>
+  <si>
+    <t>Desencofrado de columnas</t>
+  </si>
+  <si>
+    <t>Acero para columnas</t>
+  </si>
+  <si>
+    <t>Muros de albañilería</t>
+  </si>
+  <si>
+    <t>Losa aligerada</t>
+  </si>
+  <si>
+    <t>Viga de amarre</t>
+  </si>
+  <si>
+    <t>Techo de concreto</t>
+  </si>
+  <si>
+    <t>Losa maciza</t>
+  </si>
+  <si>
+    <t>Encofrado de losa</t>
+  </si>
+  <si>
+    <t>Acero de losa</t>
+  </si>
+  <si>
+    <t>Escalera de concreto</t>
+  </si>
+  <si>
+    <t>Contrapiso de concreto</t>
+  </si>
+  <si>
+    <t>Tarrajeo interior</t>
+  </si>
+  <si>
+    <t>Tarrajeo exterior</t>
+  </si>
+  <si>
+    <t>Revoque</t>
+  </si>
+  <si>
+    <t>Instalación de tubería PVC agua fría</t>
+  </si>
+  <si>
+    <t>Instalación de tubería PVC desagüe</t>
+  </si>
+  <si>
+    <t>Cajetines y cajas de inspección</t>
+  </si>
+  <si>
+    <t>Instalación eléctrica empotrada</t>
+  </si>
+  <si>
+    <t>Tablero eléctrico</t>
+  </si>
+  <si>
+    <t>Cables eléctricos</t>
+  </si>
+  <si>
+    <t>Luminarias LED</t>
+  </si>
+  <si>
+    <t>Toma corriente</t>
+  </si>
+  <si>
+    <t>Interruptores simples</t>
+  </si>
+  <si>
+    <t>Interruptores dobles</t>
+  </si>
+  <si>
+    <t>Puertas de madera contraplacada</t>
+  </si>
+  <si>
+    <t>Puertas metálicas</t>
+  </si>
+  <si>
+    <t>Ventanas de aluminio</t>
+  </si>
+  <si>
+    <t>Vidrios transparentes</t>
+  </si>
+  <si>
+    <t>Pintura látex interior</t>
+  </si>
+  <si>
+    <t>Pintura látex exterior</t>
+  </si>
+  <si>
+    <t>Pintura esmalte sintético</t>
+  </si>
+  <si>
+    <t>Cielorraso de drywall</t>
+  </si>
+  <si>
+    <t>Mampostería de ladrillo</t>
+  </si>
+  <si>
+    <t>Colocación de cerámicos</t>
+  </si>
+  <si>
+    <t>Colocación de porcelanato</t>
+  </si>
+  <si>
+    <t>Zócalos de cerámico</t>
+  </si>
+  <si>
+    <t>Grifería monocomando</t>
+  </si>
+  <si>
+    <t>Lavadero de cocina</t>
+  </si>
+  <si>
+    <t>Lavatorio de baño</t>
+  </si>
+  <si>
+    <t>Inodoro de una pieza</t>
+  </si>
+  <si>
+    <t>Ducha teléfono</t>
+  </si>
+  <si>
+    <t>Tanque elevado de agua</t>
+  </si>
+  <si>
+    <t>Sistema de bombeo</t>
+  </si>
+  <si>
+    <t>Cisterna</t>
+  </si>
+  <si>
+    <t>Revestimiento de cocina</t>
+  </si>
+  <si>
+    <t>Revestimiento de baños</t>
+  </si>
+  <si>
+    <t>Instalación de melamina</t>
+  </si>
+  <si>
+    <t>Puerta enrollable</t>
+  </si>
+  <si>
+    <t>Rampas de acceso</t>
+  </si>
+  <si>
+    <t>Veredas exteriores</t>
+  </si>
+  <si>
+    <t>Cercado perimétrico</t>
+  </si>
+  <si>
+    <t>Portón metálico</t>
+  </si>
+  <si>
+    <t>Jardinería</t>
+  </si>
+  <si>
+    <t>Pisos de concreto pulido</t>
+  </si>
+  <si>
+    <t>Pisos de cemento</t>
+  </si>
+  <si>
+    <t>Corte de terreno</t>
+  </si>
+  <si>
+    <t>Muro de contención</t>
+  </si>
+  <si>
+    <t>Escaleras exteriores</t>
+  </si>
+  <si>
+    <t>Cubierta metálica</t>
+  </si>
+  <si>
+    <t>Cobertizo</t>
+  </si>
+  <si>
+    <t>Canaletas y bajantes</t>
+  </si>
+  <si>
+    <t>Falsos techos de PVC</t>
+  </si>
+  <si>
+    <t>Muros divisorios drywall</t>
+  </si>
+  <si>
+    <t>Pisos de vinílico</t>
+  </si>
+  <si>
+    <t>Instalación de cámaras de seguridad</t>
+  </si>
+  <si>
+    <t>Sistema contra incendios</t>
+  </si>
+  <si>
+    <t>Detectores de humo</t>
+  </si>
+  <si>
+    <t>Luminarias de emergencia</t>
+  </si>
+  <si>
+    <t>Señalización de seguridad</t>
+  </si>
+  <si>
+    <t>Puertas cortafuego</t>
+  </si>
+  <si>
+    <t>Equipamiento de cocina</t>
+  </si>
+  <si>
+    <t>Revestimiento de piedra</t>
+  </si>
+  <si>
+    <t>Revestimiento de madera</t>
+  </si>
+  <si>
+    <t>Muros de concreto ciclópeo</t>
+  </si>
+  <si>
+    <t>Revoque fino</t>
+  </si>
+  <si>
+    <t>Instalación de pisos laminados</t>
+  </si>
+  <si>
+    <t>Conexión a red pública de agua</t>
+  </si>
+  <si>
+    <t>Conexión a red pública de desagüe</t>
+  </si>
+  <si>
+    <t>Tendido eléctrico exterior</t>
+  </si>
+  <si>
+    <t>Postes de alumbrado</t>
+  </si>
+  <si>
+    <t>Instalación de panel solar</t>
+  </si>
+  <si>
+    <t>Sistema de ventilación</t>
+  </si>
+  <si>
+    <t>Piso podotáctil</t>
+  </si>
+  <si>
+    <t>Rampa para discapacitados</t>
+  </si>
+  <si>
+    <t>Barrera vehicular</t>
+  </si>
+  <si>
+    <t>Caseta de vigilancia</t>
+  </si>
+  <si>
+    <t>Estacionamiento vehicular</t>
+  </si>
+  <si>
+    <t>Rampas de concreto armado</t>
+  </si>
+  <si>
+    <t>Mallas de seguridad</t>
+  </si>
+  <si>
+    <t>Iluminación decorativa</t>
+  </si>
+  <si>
+    <t>Carpintería metálica general</t>
   </si>
 </sst>
 </file>
@@ -438,13 +745,13 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -497,10 +804,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -529,10 +836,10 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -542,6 +849,832 @@
       </c>
       <c r="J3">
         <v>4000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1EC7FA-8520-44D8-9547-ADCDFEAA35A5}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/plantilla_presupuesto_modelo.xlsx
+++ b/plantilla_presupuesto_modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\AUTONOMA 2025-1\2 PROYECTO DE TESIS I\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A51C26-DB53-47B5-8CB0-F9AD58B4C14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1206AA5C-EBF2-4CC4-BE1E-20A46ADEC569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="NOMBRE PARTIDAS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="117">
   <si>
     <t>Item</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Ubicación</t>
   </si>
   <si>
-    <t>Duración</t>
-  </si>
-  <si>
     <t>Fecha de Inicio</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>2025-08-01</t>
   </si>
   <si>
-    <t>m3</t>
-  </si>
-  <si>
     <t>Limpieza del terreno</t>
   </si>
   <si>
@@ -375,13 +369,16 @@
   </si>
   <si>
     <t>Carpintería metálica general</t>
+  </si>
+  <si>
+    <t>Duración (días)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +390,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -742,15 +745,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -766,25 +772,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -792,19 +798,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2">
         <v>60</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -824,25 +830,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3">
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I3">
         <v>80</v>
@@ -851,7 +857,72 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>400</v>
+      </c>
+      <c r="I5">
+        <v>45</v>
+      </c>
+      <c r="J5">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -860,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1EC7FA-8520-44D8-9547-ADCDFEAA35A5}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,810 +942,810 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/plantilla_presupuesto_modelo.xlsx
+++ b/plantilla_presupuesto_modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\AUTONOMA 2025-1\2 PROYECTO DE TESIS I\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1206AA5C-EBF2-4CC4-BE1E-20A46ADEC569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025B4B82-E7E7-47B6-9D78-14D4F24DECFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="123">
   <si>
     <t>Item</t>
   </si>
@@ -372,6 +372,24 @@
   </si>
   <si>
     <t>Duración (días)</t>
+  </si>
+  <si>
+    <t>Excavación</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>Cimentación</t>
+  </si>
+  <si>
+    <t>Muros</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>Acabados</t>
   </si>
 </sst>
 </file>
@@ -748,7 +766,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,19 +828,19 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J2">
-        <v>3500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -842,19 +860,19 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J3">
-        <v>4000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -874,19 +892,19 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="H4">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J4">
-        <v>15000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -906,19 +924,19 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="H5">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I5">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J5">
-        <v>18000</v>
+        <v>9000</v>
       </c>
     </row>
   </sheetData>

--- a/plantilla_presupuesto_modelo.xlsx
+++ b/plantilla_presupuesto_modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\AUTONOMA 2025-1\2 PROYECTO DE TESIS I\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025B4B82-E7E7-47B6-9D78-14D4F24DECFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBE858E-DE05-4060-BEB2-D912548D67F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,7 +766,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F2" sqref="F2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
